--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N2">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q2">
-        <v>34.67270540496445</v>
+        <v>18.97648750775</v>
       </c>
       <c r="R2">
-        <v>312.05434864468</v>
+        <v>170.78838756975</v>
       </c>
       <c r="S2">
-        <v>0.1105287705902712</v>
+        <v>0.1080727482507632</v>
       </c>
       <c r="T2">
-        <v>0.1105287705902712</v>
+        <v>0.1080727482507632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H3">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q3">
-        <v>112.3717436300578</v>
+        <v>38.498678854855</v>
       </c>
       <c r="R3">
-        <v>1011.34569267052</v>
+        <v>346.488109693695</v>
       </c>
       <c r="S3">
-        <v>0.3582157933005449</v>
+        <v>0.2192533273699103</v>
       </c>
       <c r="T3">
-        <v>0.3582157933005448</v>
+        <v>0.2192533273699103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H4">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q4">
-        <v>84.93617743495999</v>
+        <v>29.09922470361</v>
       </c>
       <c r="R4">
-        <v>764.4255969146399</v>
+        <v>261.89302233249</v>
       </c>
       <c r="S4">
-        <v>0.2707573914661734</v>
+        <v>0.1657226177605988</v>
       </c>
       <c r="T4">
-        <v>0.2707573914661734</v>
+        <v>0.1657226177605988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N5">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q5">
-        <v>0.4674183302822223</v>
+        <v>0.7466982481111112</v>
       </c>
       <c r="R5">
-        <v>4.20676497254</v>
+        <v>6.720284233000001</v>
       </c>
       <c r="S5">
-        <v>0.001490024294154278</v>
+        <v>0.004252511522716785</v>
       </c>
       <c r="T5">
-        <v>0.001490024294154278</v>
+        <v>0.004252511522716785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q6">
         <v>1.514869179228889</v>
@@ -818,10 +818,10 @@
         <v>13.63382261306</v>
       </c>
       <c r="S6">
-        <v>0.004829061534993135</v>
+        <v>0.008627311844343285</v>
       </c>
       <c r="T6">
-        <v>0.004829061534993135</v>
+        <v>0.008627311844343285</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q7">
         <v>1.14501380188</v>
@@ -880,10 +880,10 @@
         <v>10.30512421692</v>
       </c>
       <c r="S7">
-        <v>0.003650045946878098</v>
+        <v>0.006520953274608331</v>
       </c>
       <c r="T7">
-        <v>0.003650045946878098</v>
+        <v>0.006520953274608331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H8">
         <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N8">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q8">
-        <v>11.74643978739667</v>
+        <v>18.76487386683334</v>
       </c>
       <c r="R8">
-        <v>105.71795808657</v>
+        <v>168.8838648015</v>
       </c>
       <c r="S8">
-        <v>0.03744500272908347</v>
+        <v>0.1068675901448769</v>
       </c>
       <c r="T8">
-        <v>0.03744500272908347</v>
+        <v>0.1068675901448769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H9">
         <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>14.919985</v>
       </c>
       <c r="O9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q9">
-        <v>38.06936623313667</v>
+        <v>38.06936623313668</v>
       </c>
       <c r="R9">
         <v>342.62429609823</v>
       </c>
       <c r="S9">
-        <v>0.1213565597998278</v>
+        <v>0.2168083546177668</v>
       </c>
       <c r="T9">
-        <v>0.1213565597998278</v>
+        <v>0.2168083546177668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H10">
         <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>11.27727</v>
       </c>
       <c r="O10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q10">
-        <v>28.77472877754</v>
+        <v>28.77472877754001</v>
       </c>
       <c r="R10">
         <v>258.97255899786</v>
       </c>
       <c r="S10">
-        <v>0.09172735033807368</v>
+        <v>0.1638745852144156</v>
       </c>
       <c r="T10">
-        <v>0.09172735033807368</v>
+        <v>0.1638745852144156</v>
       </c>
     </row>
   </sheetData>
